--- a/docs/artefacts/[26.I.PM2-Template.v3].Change_Log.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
+++ b/docs/artefacts/[26.I.PM2-Template.v3].Change_Log.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\artefacts for cover page\OPM²_Artefacts.v3.0.1 with Cover Page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redelectrica-my.sharepoint.com/personal/adrian_sanchez_ree_es/Documents/Documentos/Code/github.com/adrisanchu/pm2/docs/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519F695-9C32-46D2-A492-9D9EC0CF0A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4519F695-9C32-46D2-A492-9D9EC0CF0A6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{223C19DF-6E47-4F33-8CA8-1E367FA3F8D3}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14970" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28815" yWindow="-15" windowWidth="28830" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log" sheetId="1" r:id="rId1"/>
@@ -1788,11 +1788,11 @@
   </sheetPr>
   <dimension ref="B1:S740"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="55" zoomScaleNormal="164" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="164" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
@@ -8666,8 +8666,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;K0070C0PM² Log V3.0.1&amp;C&amp;"-,Bold"&amp;16Change Log 
-&amp;K09-028&lt;Project Name&gt;&amp;R&amp;G</oddHeader>
+    <oddHeader>&amp;L&amp;K0070C0PM² Log V3.0.1&amp;C&amp;"-,Negrita"&amp;16Change Log 
+&amp;K09-025&lt;Project Name&gt;&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
